--- a/DateBase/orders/Dang Nguyen_2025-7-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-9.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101520552017880</v>
+        <v>0101520552017887</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,251 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>3</v>
+      </c>
+      <c r="C15" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>4</v>
+      </c>
+      <c r="C19" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">386_单瓣菟葵粉 
+green_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>552_蓝盆花紫色_Scabiosa caucasica purple_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v xml:space="preserve">10                                                                                                               </v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>745_海芋红_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>5</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕深蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>6</v>
+      </c>
+      <c r="C36" t="str">
+        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="C38" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L39"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +829,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101520552017887</v>
+        <v>0101520552017887101010101015131055551010                                                                                                               3105101010101051510101010</v>
       </c>
     </row>
   </sheetData>
